--- a/ທ້າວນູຊົ່ວ_4cw1_05.xlsx
+++ b/ທ້າວນູຊົ່ວ_4cw1_05.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Final studens\MOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40D67555-4339-4512-879F-E5EA4C458FAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{173B9DAF-4D1C-44DF-930A-82B0DA058958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -283,6 +283,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -293,9 +296,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -599,14 +599,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="24.6" x14ac:dyDescent="0.65">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="15"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="16"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
@@ -748,10 +748,10 @@
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="12"/>
+      <c r="G11" s="13"/>
     </row>
     <row r="12" spans="1:7" ht="31.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="3" t="s">
